--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_sc.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_sc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Ambiente de Trabalho\estagio\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C07BBF1-6A27-4612-9760-CBEB381740DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297A8E08-CA3D-F448-91B3-0BB7AA65E07D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1805,16 +1805,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1838,9 +1832,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2146,21 +2139,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:D296"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="A297" sqref="A297:D316"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>589</v>
       </c>
@@ -2174,7 +2167,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4200051</v>
       </c>
@@ -2185,7 +2178,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4200101</v>
       </c>
@@ -2196,7 +2189,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4200200</v>
       </c>
@@ -2207,7 +2200,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4200309</v>
       </c>
@@ -2218,7 +2211,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4200408</v>
       </c>
@@ -2229,7 +2222,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4200507</v>
       </c>
@@ -2240,7 +2233,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4200556</v>
       </c>
@@ -2251,7 +2244,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4200606</v>
       </c>
@@ -2262,7 +2255,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4200705</v>
       </c>
@@ -2273,7 +2266,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4200754</v>
       </c>
@@ -2284,7 +2277,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4200804</v>
       </c>
@@ -2295,7 +2288,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4200903</v>
       </c>
@@ -2306,7 +2299,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4201000</v>
       </c>
@@ -2317,7 +2310,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4201109</v>
       </c>
@@ -2328,7 +2321,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4201208</v>
       </c>
@@ -2339,7 +2332,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4201257</v>
       </c>
@@ -2350,7 +2343,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4201273</v>
       </c>
@@ -2361,7 +2354,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4201307</v>
       </c>
@@ -2372,7 +2365,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4201406</v>
       </c>
@@ -2383,7 +2376,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4201505</v>
       </c>
@@ -2394,7 +2387,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4201604</v>
       </c>
@@ -2405,7 +2398,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4201653</v>
       </c>
@@ -2416,7 +2409,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4201703</v>
       </c>
@@ -2427,7 +2420,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4201802</v>
       </c>
@@ -2438,7 +2431,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4201901</v>
       </c>
@@ -2449,7 +2442,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4201950</v>
       </c>
@@ -2460,7 +2453,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4202008</v>
       </c>
@@ -2471,7 +2464,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4202057</v>
       </c>
@@ -2482,7 +2475,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4202073</v>
       </c>
@@ -2493,7 +2486,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4202081</v>
       </c>
@@ -2504,7 +2497,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4202099</v>
       </c>
@@ -2515,7 +2508,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4202107</v>
       </c>
@@ -2526,7 +2519,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4202131</v>
       </c>
@@ -2537,7 +2530,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4202156</v>
       </c>
@@ -2548,7 +2541,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4202206</v>
       </c>
@@ -2559,7 +2552,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4202305</v>
       </c>
@@ -2570,7 +2563,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4202404</v>
       </c>
@@ -2581,7 +2574,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4202438</v>
       </c>
@@ -2592,7 +2585,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4202453</v>
       </c>
@@ -2603,7 +2596,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4202503</v>
       </c>
@@ -2614,7 +2607,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4202537</v>
       </c>
@@ -2625,7 +2618,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4202578</v>
       </c>
@@ -2636,7 +2629,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4202602</v>
       </c>
@@ -2647,7 +2640,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4202701</v>
       </c>
@@ -2658,7 +2651,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4202800</v>
       </c>
@@ -2669,7 +2662,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4202859</v>
       </c>
@@ -2680,7 +2673,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4202875</v>
       </c>
@@ -2691,7 +2684,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4202909</v>
       </c>
@@ -2702,7 +2695,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4203006</v>
       </c>
@@ -2713,7 +2706,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4203105</v>
       </c>
@@ -2724,7 +2717,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4203154</v>
       </c>
@@ -2735,7 +2728,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4203204</v>
       </c>
@@ -2746,7 +2739,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4203253</v>
       </c>
@@ -2757,7 +2750,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>4203303</v>
       </c>
@@ -2768,7 +2761,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4203402</v>
       </c>
@@ -2779,7 +2772,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>4203501</v>
       </c>
@@ -2790,7 +2783,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4203600</v>
       </c>
@@ -2801,7 +2794,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4203709</v>
       </c>
@@ -2812,7 +2805,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4203808</v>
       </c>
@@ -2823,7 +2816,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4203907</v>
       </c>
@@ -2834,7 +2827,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4203956</v>
       </c>
@@ -2845,7 +2838,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4204004</v>
       </c>
@@ -2856,7 +2849,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4204103</v>
       </c>
@@ -2867,7 +2860,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4204152</v>
       </c>
@@ -2878,7 +2871,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4204178</v>
       </c>
@@ -2889,7 +2882,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4204194</v>
       </c>
@@ -2900,7 +2893,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4204202</v>
       </c>
@@ -2911,7 +2904,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4204251</v>
       </c>
@@ -2922,7 +2915,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4204301</v>
       </c>
@@ -2933,7 +2926,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4204350</v>
       </c>
@@ -2944,7 +2937,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4204400</v>
       </c>
@@ -2955,7 +2948,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4204459</v>
       </c>
@@ -2966,7 +2959,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>4204509</v>
       </c>
@@ -2977,7 +2970,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4204558</v>
       </c>
@@ -2988,7 +2981,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4204608</v>
       </c>
@@ -2999,7 +2992,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4204707</v>
       </c>
@@ -3010,7 +3003,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4204756</v>
       </c>
@@ -3021,7 +3014,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4204806</v>
       </c>
@@ -3032,7 +3025,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4204905</v>
       </c>
@@ -3043,7 +3036,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4205001</v>
       </c>
@@ -3054,7 +3047,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4205100</v>
       </c>
@@ -3065,7 +3058,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4205159</v>
       </c>
@@ -3076,7 +3069,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>4205175</v>
       </c>
@@ -3087,7 +3080,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>4205191</v>
       </c>
@@ -3098,7 +3091,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4205209</v>
       </c>
@@ -3109,7 +3102,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4205308</v>
       </c>
@@ -3120,7 +3113,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4205357</v>
       </c>
@@ -3131,7 +3124,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4205407</v>
       </c>
@@ -3142,7 +3135,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>4205431</v>
       </c>
@@ -3153,7 +3146,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>4205456</v>
       </c>
@@ -3164,7 +3157,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>4205506</v>
       </c>
@@ -3175,7 +3168,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4205555</v>
       </c>
@@ -3186,7 +3179,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>4205605</v>
       </c>
@@ -3197,7 +3190,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>4205704</v>
       </c>
@@ -3208,7 +3201,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4205803</v>
       </c>
@@ -3219,7 +3212,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>4205902</v>
       </c>
@@ -3230,7 +3223,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>4206009</v>
       </c>
@@ -3241,7 +3234,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>4206108</v>
       </c>
@@ -3252,7 +3245,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>4206207</v>
       </c>
@@ -3263,7 +3256,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>4206306</v>
       </c>
@@ -3274,7 +3267,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>4206405</v>
       </c>
@@ -3285,7 +3278,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>4206504</v>
       </c>
@@ -3296,7 +3289,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>4206603</v>
       </c>
@@ -3307,7 +3300,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>4206652</v>
       </c>
@@ -3318,7 +3311,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>4206702</v>
       </c>
@@ -3329,7 +3322,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>4206751</v>
       </c>
@@ -3340,7 +3333,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>4206801</v>
       </c>
@@ -3351,7 +3344,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>4206900</v>
       </c>
@@ -3362,7 +3355,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>4207007</v>
       </c>
@@ -3373,7 +3366,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>4207106</v>
       </c>
@@ -3384,7 +3377,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>4207205</v>
       </c>
@@ -3395,7 +3388,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>4207304</v>
       </c>
@@ -3406,7 +3399,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>4207403</v>
       </c>
@@ -3417,7 +3410,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>4207502</v>
       </c>
@@ -3428,7 +3421,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>4207577</v>
       </c>
@@ -3439,7 +3432,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>4207601</v>
       </c>
@@ -3450,7 +3443,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>4207650</v>
       </c>
@@ -3461,7 +3454,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>4207684</v>
       </c>
@@ -3472,7 +3465,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>4207700</v>
       </c>
@@ -3483,7 +3476,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>4207759</v>
       </c>
@@ -3494,7 +3487,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>4207809</v>
       </c>
@@ -3505,7 +3498,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>4207858</v>
       </c>
@@ -3516,7 +3509,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>4207908</v>
       </c>
@@ -3527,7 +3520,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>4208005</v>
       </c>
@@ -3538,7 +3531,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>4208104</v>
       </c>
@@ -3549,7 +3542,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>4208203</v>
       </c>
@@ -3560,7 +3553,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>4208302</v>
       </c>
@@ -3571,7 +3564,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>4208401</v>
       </c>
@@ -3582,7 +3575,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>4208450</v>
       </c>
@@ -3593,7 +3586,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>4208500</v>
       </c>
@@ -3604,7 +3597,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>4208609</v>
       </c>
@@ -3615,7 +3608,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>4208708</v>
       </c>
@@ -3626,7 +3619,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>4208807</v>
       </c>
@@ -3637,7 +3630,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>4208906</v>
       </c>
@@ -3648,7 +3641,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>4208955</v>
       </c>
@@ -3659,7 +3652,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>4209003</v>
       </c>
@@ -3670,7 +3663,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>4209102</v>
       </c>
@@ -3681,7 +3674,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>4209151</v>
       </c>
@@ -3692,7 +3685,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>4209177</v>
       </c>
@@ -3703,7 +3696,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>4209201</v>
       </c>
@@ -3714,7 +3707,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>4209300</v>
       </c>
@@ -3725,7 +3718,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>4209409</v>
       </c>
@@ -3736,7 +3729,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>4209458</v>
       </c>
@@ -3747,7 +3740,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>4209508</v>
       </c>
@@ -3758,7 +3751,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>4209607</v>
       </c>
@@ -3769,7 +3762,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>4209706</v>
       </c>
@@ -3780,7 +3773,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>4209805</v>
       </c>
@@ -3791,7 +3784,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>4209854</v>
       </c>
@@ -3802,7 +3795,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>4209904</v>
       </c>
@@ -3813,7 +3806,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>4210001</v>
       </c>
@@ -3824,7 +3817,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>4210035</v>
       </c>
@@ -3835,7 +3828,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>4210050</v>
       </c>
@@ -3846,7 +3839,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>4210100</v>
       </c>
@@ -3857,7 +3850,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>4210209</v>
       </c>
@@ -3868,7 +3861,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>4210308</v>
       </c>
@@ -3879,7 +3872,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>4210407</v>
       </c>
@@ -3890,7 +3883,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>4210506</v>
       </c>
@@ -3901,7 +3894,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>4210555</v>
       </c>
@@ -3912,7 +3905,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>4210605</v>
       </c>
@@ -3923,7 +3916,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>4210704</v>
       </c>
@@ -3934,7 +3927,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>4210803</v>
       </c>
@@ -3945,7 +3938,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>4210852</v>
       </c>
@@ -3956,7 +3949,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>4210902</v>
       </c>
@@ -3967,7 +3960,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>4211009</v>
       </c>
@@ -3978,7 +3971,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>4211058</v>
       </c>
@@ -3989,7 +3982,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>4211108</v>
       </c>
@@ -4000,7 +3993,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>4211207</v>
       </c>
@@ -4011,7 +4004,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>4211256</v>
       </c>
@@ -4022,7 +4015,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>4211306</v>
       </c>
@@ -4033,7 +4026,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>4211405</v>
       </c>
@@ -4044,7 +4037,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>4211454</v>
       </c>
@@ -4055,7 +4048,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>4211504</v>
       </c>
@@ -4066,7 +4059,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>4211603</v>
       </c>
@@ -4077,7 +4070,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>4211652</v>
       </c>
@@ -4088,7 +4081,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>4211702</v>
       </c>
@@ -4099,7 +4092,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>4211751</v>
       </c>
@@ -4110,7 +4103,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>4211801</v>
       </c>
@@ -4121,7 +4114,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>4211850</v>
       </c>
@@ -4132,7 +4125,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>4211876</v>
       </c>
@@ -4143,7 +4136,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>4211892</v>
       </c>
@@ -4154,7 +4147,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>4211900</v>
       </c>
@@ -4165,7 +4158,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>4212007</v>
       </c>
@@ -4176,7 +4169,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>4212056</v>
       </c>
@@ -4187,7 +4180,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>4212106</v>
       </c>
@@ -4198,7 +4191,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>4212205</v>
       </c>
@@ -4209,7 +4202,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>4212239</v>
       </c>
@@ -4220,7 +4213,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>4212254</v>
       </c>
@@ -4231,7 +4224,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>4212270</v>
       </c>
@@ -4242,7 +4235,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>4212304</v>
       </c>
@@ -4253,7 +4246,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>4212403</v>
       </c>
@@ -4264,7 +4257,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>4212502</v>
       </c>
@@ -4275,7 +4268,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>4212601</v>
       </c>
@@ -4286,7 +4279,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>4212650</v>
       </c>
@@ -4297,7 +4290,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>4212700</v>
       </c>
@@ -4308,7 +4301,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>4212809</v>
       </c>
@@ -4319,7 +4312,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>4212908</v>
       </c>
@@ -4330,7 +4323,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>4213005</v>
       </c>
@@ -4341,7 +4334,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>4213104</v>
       </c>
@@ -4352,7 +4345,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>4213153</v>
       </c>
@@ -4363,7 +4356,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>4213203</v>
       </c>
@@ -4374,7 +4367,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>4213302</v>
       </c>
@@ -4385,7 +4378,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>4213351</v>
       </c>
@@ -4396,7 +4389,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>4213401</v>
       </c>
@@ -4407,7 +4400,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>4213500</v>
       </c>
@@ -4418,7 +4411,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>4213609</v>
       </c>
@@ -4429,7 +4422,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>4213708</v>
       </c>
@@ -4440,7 +4433,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>4213807</v>
       </c>
@@ -4451,7 +4444,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>4213906</v>
       </c>
@@ -4462,7 +4455,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>4214003</v>
       </c>
@@ -4473,7 +4466,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>4214102</v>
       </c>
@@ -4484,7 +4477,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>4214151</v>
       </c>
@@ -4495,7 +4488,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>4214201</v>
       </c>
@@ -4506,7 +4499,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>4214300</v>
       </c>
@@ -4517,7 +4510,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>4214409</v>
       </c>
@@ -4528,7 +4521,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>4214508</v>
       </c>
@@ -4539,7 +4532,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>4214607</v>
       </c>
@@ -4550,7 +4543,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>4214706</v>
       </c>
@@ -4561,7 +4554,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>4214805</v>
       </c>
@@ -4572,7 +4565,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>4214904</v>
       </c>
@@ -4583,7 +4576,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>4215000</v>
       </c>
@@ -4594,7 +4587,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>4215059</v>
       </c>
@@ -4605,7 +4598,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>4215075</v>
       </c>
@@ -4616,7 +4609,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>4215109</v>
       </c>
@@ -4627,7 +4620,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>4215208</v>
       </c>
@@ -4638,7 +4631,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>4215307</v>
       </c>
@@ -4649,7 +4642,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>4215356</v>
       </c>
@@ -4660,7 +4653,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>4215406</v>
       </c>
@@ -4671,7 +4664,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>4215455</v>
       </c>
@@ -4682,7 +4675,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>4215505</v>
       </c>
@@ -4693,7 +4686,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>4215554</v>
       </c>
@@ -4704,7 +4697,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>4215604</v>
       </c>
@@ -4715,7 +4708,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>4215653</v>
       </c>
@@ -4726,7 +4719,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>4215679</v>
       </c>
@@ -4737,7 +4730,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>4215687</v>
       </c>
@@ -4748,7 +4741,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>4215695</v>
       </c>
@@ -4759,7 +4752,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>4215703</v>
       </c>
@@ -4770,7 +4763,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>4215752</v>
       </c>
@@ -4781,7 +4774,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>4215802</v>
       </c>
@@ -4792,7 +4785,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>4215901</v>
       </c>
@@ -4803,7 +4796,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>4216008</v>
       </c>
@@ -4814,7 +4807,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>4216057</v>
       </c>
@@ -4825,7 +4818,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>4216107</v>
       </c>
@@ -4836,7 +4829,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>4216206</v>
       </c>
@@ -4847,7 +4840,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>4216255</v>
       </c>
@@ -4858,7 +4851,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>4216305</v>
       </c>
@@ -4869,7 +4862,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>4216354</v>
       </c>
@@ -4880,7 +4873,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>4216404</v>
       </c>
@@ -4891,7 +4884,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>4216503</v>
       </c>
@@ -4902,7 +4895,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>4216602</v>
       </c>
@@ -4913,7 +4906,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>4216701</v>
       </c>
@@ -4924,7 +4917,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>4216800</v>
       </c>
@@ -4935,7 +4928,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>4216909</v>
       </c>
@@ -4946,7 +4939,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>4217006</v>
       </c>
@@ -4957,7 +4950,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>4217105</v>
       </c>
@@ -4968,7 +4961,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>4217154</v>
       </c>
@@ -4979,7 +4972,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>4217204</v>
       </c>
@@ -4990,7 +4983,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>4217253</v>
       </c>
@@ -5001,7 +4994,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>4217303</v>
       </c>
@@ -5012,7 +5005,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>4217402</v>
       </c>
@@ -5023,7 +5016,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>4217501</v>
       </c>
@@ -5034,7 +5027,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>4217550</v>
       </c>
@@ -5045,7 +5038,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>4217600</v>
       </c>
@@ -5056,7 +5049,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>4217709</v>
       </c>
@@ -5067,7 +5060,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>4217758</v>
       </c>
@@ -5078,7 +5071,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>4217808</v>
       </c>
@@ -5089,7 +5082,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>4217907</v>
       </c>
@@ -5100,7 +5093,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>4217956</v>
       </c>
@@ -5111,7 +5104,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>4218004</v>
       </c>
@@ -5122,7 +5115,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>4218103</v>
       </c>
@@ -5133,7 +5126,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>4218202</v>
       </c>
@@ -5144,7 +5137,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>4218251</v>
       </c>
@@ -5155,7 +5148,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>4218301</v>
       </c>
@@ -5166,7 +5159,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>4218350</v>
       </c>
@@ -5177,7 +5170,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>4218400</v>
       </c>
@@ -5188,7 +5181,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>4218509</v>
       </c>
@@ -5199,7 +5192,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>4218608</v>
       </c>
@@ -5210,7 +5203,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>4218707</v>
       </c>
@@ -5221,7 +5214,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>4218756</v>
       </c>
@@ -5232,7 +5225,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>4218806</v>
       </c>
@@ -5243,7 +5236,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>4218855</v>
       </c>
@@ -5254,7 +5247,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>4218905</v>
       </c>
@@ -5265,7 +5258,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>4218954</v>
       </c>
@@ -5276,7 +5269,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>4219002</v>
       </c>
@@ -5287,7 +5280,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>4219101</v>
       </c>
@@ -5298,7 +5291,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>4219150</v>
       </c>
@@ -5309,7 +5302,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>4219176</v>
       </c>
@@ -5320,7 +5313,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>4219200</v>
       </c>
@@ -5331,7 +5324,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>4219309</v>
       </c>
@@ -5342,7 +5335,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>4219358</v>
       </c>
@@ -5353,7 +5346,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>4219408</v>
       </c>
@@ -5364,7 +5357,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>4219507</v>
       </c>
@@ -5375,7 +5368,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>4219606</v>
       </c>
@@ -5386,7 +5379,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>4219705</v>
       </c>
@@ -5397,7 +5390,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>4219853</v>
       </c>
@@ -5408,7 +5401,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>4220000</v>
       </c>
@@ -5418,9 +5411,6 @@
       <c r="C296" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B301" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
